--- a/ut3/PDs/UT03-PD1/UT3-PD1.xlsx
+++ b/ut3/PDs/UT03-PD1/UT3-PD1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Machine-Learning-Portfolio\ut3\PDs\UT03-PD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0742C-EB6C-445E-9CED-2D8DB8519D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20948602-6AE0-4DDC-AF8F-2D63898C2E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FB04241C-9064-4DAC-8E3B-C220C05D2793}"/>
   </bookViews>
@@ -795,7 +795,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.1877009699145029</c:v>
+                  <c:v>2.1877009699144998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5593079124464437</c:v>
@@ -4408,7 +4408,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4554,7 +4554,7 @@
         <v>0.78295000000000003</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="2"/>
+        <f>F6-C6</f>
         <v>-2.21705</v>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
         <v>0.31442300000000001</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="3"/>
+        <f>D7+E7*B7</f>
         <v>1.9660584999999999</v>
       </c>
       <c r="G7" s="4">
@@ -5130,7 +5130,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>2.1877009699145029</v>
+        <v>2.1877009699144998</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>10</v>

--- a/ut3/PDs/UT03-PD1/UT3-PD1.xlsx
+++ b/ut3/PDs/UT03-PD1/UT3-PD1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\Documents\GitHub\Machine-Learning-Portfolio\ut3\PDs\UT03-PD1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20948602-6AE0-4DDC-AF8F-2D63898C2E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F6DD1A-209E-486C-B761-0119C3B354FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{FB04241C-9064-4DAC-8E3B-C220C05D2793}"/>
   </bookViews>
   <sheets>
-    <sheet name="valores originales" sheetId="1" r:id="rId1"/>
-    <sheet name="valores generados" sheetId="2" r:id="rId2"/>
+    <sheet name="Ej 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>x</t>
   </si>
@@ -67,10 +66,37 @@
     <t>modelo</t>
   </si>
   <si>
-    <t>y = 0.208 + 0.5322 x</t>
+    <t>y = 0.1963 + 0.5306 x</t>
   </si>
   <si>
-    <t>y = 0.2891 + 0.4787 x</t>
+    <t>Respuestas:</t>
+  </si>
+  <si>
+    <t>d) El RMSE obtenido en este modelo es mayor al de la TA1 que fue de 1.3</t>
+  </si>
+  <si>
+    <t>f) Requerimientos de los datos</t>
+  </si>
+  <si>
+    <t>a) El número de iteraciones apropiado se podría determinar a partir de obtener unos coeficientes que generen un</t>
+  </si>
+  <si>
+    <t>modelo cuyos errores para los valores de entrenamiento nos de valores tan cercanos al cero como queramos.</t>
+  </si>
+  <si>
+    <t>Ausencia de ruido: No hubo una medición de datos</t>
+  </si>
+  <si>
+    <t>Remoción de colinearidad: No hay correlación al trabajar con una sola variable de entrada</t>
+  </si>
+  <si>
+    <t>De todas formas hay que tener cuidado con el overfitting si hay variables de entrada altamente correlacionadas.</t>
+  </si>
+  <si>
+    <t>Reescalar las entradas: No se realizó estandarización ni normalización</t>
+  </si>
+  <si>
+    <t>Distribución Gaussiana: Los datos tienen una cierta similutud a una distribución gaussiana</t>
   </si>
 </sst>
 </file>
@@ -97,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -171,11 +197,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,9 +243,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,31 +291,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-UY"/>
-              <a:t>Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -306,6 +329,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ej 1'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -330,90 +364,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'valores originales'!$A$3:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'valores originales'!$G$3:$G$26</c:f>
+              <c:f>'Ej 1'!$G$3:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="24"/>
@@ -421,73 +374,73 @@
                   <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9</c:v>
+                  <c:v>-1.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.835</c:v>
+                  <c:v>-2.8327999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.21705</c:v>
+                  <c:v>-2.440248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.3941500000000069E-2</c:v>
+                  <c:v>-0.57927399999999984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.3395397100000004</c:v>
+                  <c:v>-3.6227649799999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.53722921580000005</c:v>
+                  <c:v>-0.43668852120000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.78447535002000013</c:v>
+                  <c:v>-0.54129976235199995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1108839310929999</c:v>
+                  <c:v>-1.94673627319936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.98938995165838994</c:v>
+                  <c:v>-0.85239703444629766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3081987560914548</c:v>
+                  <c:v>1.3577046492583715</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.5570535304099469</c:v>
+                  <c:v>-2.5957808859361227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.34475514825395104</c:v>
+                  <c:v>-0.24457329265554295</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.33971721859425541</c:v>
+                  <c:v>-7.2942642417915149E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.8183552195293116</c:v>
+                  <c:v>-1.6512062496409194</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.50439841973602118</c:v>
+                  <c:v>-0.33148194424364474</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8325338256019585</c:v>
+                  <c:v>1.9885525347324955</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.2493412892565376</c:v>
+                  <c:v>-2.2597400252619386</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.25951297915896521</c:v>
+                  <c:v>-0.17426811231986405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.16099559761415905</c:v>
+                  <c:v>8.3732858985944958E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.6970142489226749</c:v>
+                  <c:v>-1.5493862456727769</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.31394514032280618</c:v>
+                  <c:v>-0.16044984604197188</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.0325523877934595</c:v>
+                  <c:v>2.1911297028156875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.1299168545506224</c:v>
+                  <c:v>-2.1502720425724378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,7 +448,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C558-4362-8E06-496EFB240296}"/>
+              <c16:uniqueId val="{00000000-BB1F-42B3-A41B-7411A0B0C34C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -507,11 +460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1827488640"/>
-        <c:axId val="1826222416"/>
+        <c:axId val="33810735"/>
+        <c:axId val="33808239"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1827488640"/>
+        <c:axId val="33810735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +484,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -568,12 +520,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1826222416"/>
+        <c:crossAx val="33808239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1826222416"/>
+        <c:axId val="33808239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -630,7 +582,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1827488640"/>
+        <c:crossAx val="33810735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -727,27 +679,25 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'valores originales'!$E$28</c:f>
+              <c:f>'Ej 1'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RMSE</c:v>
+                  <c:v>y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -769,50 +719,170 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'valores originales'!$D$29:$D$32</c:f>
+              <c:f>'Ej 1'!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'valores originales'!$E$29:$E$32</c:f>
+              <c:f>'Ej 1'!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.1877009699144998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5593079124464437</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4266986267024719</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3987792592951489</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D65-49FF-A3D1-DB1F6F3ACD25}"/>
+              <c16:uniqueId val="{00000000-A876-4DBE-A7B5-F8F996D2F31C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -824,16 +894,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1872278208"/>
-        <c:axId val="1872275296"/>
+        <c:axId val="108473039"/>
+        <c:axId val="108469711"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1872278208"/>
+        <c:axId val="108473039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -843,8 +927,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -871,12 +955,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872275296"/>
+        <c:crossAx val="108469711"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1872275296"/>
+        <c:axId val="108469711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,8 +986,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -927,7 +1017,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1872278208"/>
+        <c:crossAx val="108473039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1031,11 +1121,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'valores generados'!$G$2</c:f>
+              <c:f>'Ej 1'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>error</c:v>
+                  <c:v>p</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1066,162 +1156,504 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'valores generados'!$A$3:$A$26</c:f>
+              <c:f>'Ej 1'!$Q$3:$Q$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="81"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'valores generados'!$G$3:$G$26</c:f>
+              <c:f>'Ej 1'!$R$3:$R$83</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>-5</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>0.19630918069595849</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.5</c:v>
+                  <c:v>0.24937755623059055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7549999999999999</c:v>
+                  <c:v>0.30244593176522261</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47435000000000027</c:v>
+                  <c:v>0.35551430729985473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0433775000000001</c:v>
+                  <c:v>0.40858268283448679</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.8790407499999997</c:v>
+                  <c:v>0.46165105836911885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.403790485</c:v>
+                  <c:v>0.51471943390375097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.0450537715000001</c:v>
+                  <c:v>0.56778780943838303</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.10610208329500015</c:v>
+                  <c:v>0.62085618497301509</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2793450833441504</c:v>
+                  <c:v>0.67392456050764715</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15669242498585234</c:v>
+                  <c:v>0.72699293604227921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.4187670037472415</c:v>
+                  <c:v>0.78006131157691139</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.2872601426192469</c:v>
+                  <c:v>0.83312968711154334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.8378692953000604</c:v>
+                  <c:v>0.88619806264617551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1135187057081577</c:v>
+                  <c:v>0.93926643818080746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4964467698345603</c:v>
+                  <c:v>0.99233481371543952</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.28506410999553822</c:v>
+                  <c:v>1.0454031892500717</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.3634060736921869</c:v>
+                  <c:v>1.0984715647847036</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.2320397981599545</c:v>
+                  <c:v>1.1515399403193358</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.7896004148895783</c:v>
+                  <c:v>1.2046083158539678</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15121055131363903</c:v>
+                  <c:v>1.2576766913885999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.511588471862737</c:v>
+                  <c:v>1.3107450669232321</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27723652352946537</c:v>
+                  <c:v>1.3638134424578643</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.3595449396750019</c:v>
+                  <c:v>1.416881817992496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4699501935271282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5230185690617604</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5760869445963925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6291553201310245</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6822236956656564</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7352920712002886</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7883604467349206</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8414288222695527</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8944971978041849</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9475655733388169</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0006339488734488</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0537023244080812</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1067706999427132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.1598390754773451</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2129074510119771</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2659758265466095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.3190442020812414</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.3721125776158734</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4251809531505057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4782493286851377</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5313177042197701</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.5843860797544016</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.6374544552890336</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6905228308236659</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.7435912063582979</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7966595818929303</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.8497279574275622</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.9027963329621942</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.9558647084968266</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.0089330840314581</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0620014595660905</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.1150698351007224</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1681382106353544</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.2212065861699868</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2742749617046187</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.3273433372392511</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.3804117127738826</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.4334800883085146</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.486548463843147</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5396168393777789</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.5926852149124113</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6457535904470433</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.6988219659816752</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.7518903415163076</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.8049587170509391</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.8580270925855715</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.9110954681202035</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.9641638436548354</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.0172322191894683</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.0703005947240998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1233689702587322</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.1764373457933637</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.2295057213279961</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.2825740968626285</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.3356424723972609</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.3887108479318933</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.4417792234665239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,7 +1661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E67-4A3C-AA2E-1F5513ED6EEA}"/>
+              <c16:uniqueId val="{00000000-9A6D-444F-B3DA-974099449E2E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1241,11 +1673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1821142128"/>
-        <c:axId val="1821142544"/>
+        <c:axId val="140311855"/>
+        <c:axId val="140306031"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1821142128"/>
+        <c:axId val="140311855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,12 +1734,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1821142544"/>
+        <c:crossAx val="140306031"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1821142544"/>
+        <c:axId val="140306031"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,324 +1796,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1821142128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-UY"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'valores generados'!$E$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RMSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'valores generados'!$D$29:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'valores generados'!$E$29:$E$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.884803435538454</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4033751808519881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.3689113485675959</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3483357295941056</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D41-4979-96CC-F3C3346FD79E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1942824048"/>
-        <c:axId val="1942825296"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1942824048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-UY"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1942825296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1942825296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-UY"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1942824048"/>
+        <c:crossAx val="140311855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1850,46 +1965,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2407,7 +2482,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2434,8 +2509,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2515,11 +2590,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2530,11 +2600,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2546,7 +2611,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2566,9 +2631,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2581,10 +2643,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2624,22 +2686,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2744,8 +2807,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2877,19 +2940,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2903,6 +2967,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3438,543 +3513,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160404</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33060F16-D3CC-4B65-99CB-E9D2B9860D0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B92A68-CD3B-412B-AED9-F6577BFE4610}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,23 +3553,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479611</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>174811</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F552BA9A-2F0C-42B5-AB1F-65AD2DAE836B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52120881-7715-4EF8-9682-FCAF40674BC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4028,30 +3587,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>353292</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>48492</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>62345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85193D56-43B7-481B-9800-45C12120A7BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7747008D-3250-4F52-AC57-BCD514E337FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,43 +3617,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8F1818-78D4-4705-B34D-2DA55964D62A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4405,20 +3923,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96042BF7-EE6E-4344-A848-39E154BBB153}">
-  <dimension ref="A2:K32"/>
+  <dimension ref="A2:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
@@ -4440,12 +3958,15 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+      <c r="Q2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -4469,15 +3990,18 @@
         <f>F3-C3</f>
         <v>-1</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>$D$26+Q3*$E$26</f>
+        <v>0.19630918069595849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -4488,23 +4012,33 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D26" si="0">D3-$K$3*G3</f>
+        <f t="shared" ref="D4:D26" si="0">D3-$H$4*G3</f>
         <v>0.01</v>
       </c>
       <c r="E4" s="4">
-        <f t="shared" ref="E4:E26" si="1">E3-$K$3*G3*B4</f>
-        <v>0.03</v>
+        <f t="shared" ref="E4:E26" si="1">E3-$H$4*G3*B3</f>
+        <v>0.01</v>
       </c>
       <c r="F4" s="4">
         <f>D4+E4*B4</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G26" si="2">F4-C4</f>
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <f>F4-C4</f>
+        <v>-1.96</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R4" s="13">
+        <f t="shared" ref="R4:R66" si="2">$D$26+Q4*$E$26</f>
+        <v>0.24937755623059055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -4516,22 +4050,29 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>2.8999999999999998E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>6.8000000000000005E-2</v>
+        <v>6.88E-2</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ref="F5:F26" si="3">D5+E5*B5</f>
-        <v>0.16500000000000001</v>
+        <v>0.16720000000000002</v>
       </c>
       <c r="G5" s="4">
+        <f>F5-C5</f>
+        <v>-2.8327999999999998</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="13">
         <f t="shared" si="2"/>
-        <v>-2.835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.30244593176522261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -4543,22 +4084,29 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>5.7349999999999998E-2</v>
+        <v>5.7928E-2</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>0.18140000000000001</v>
+        <v>0.12545600000000001</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="3"/>
-        <v>0.78295000000000003</v>
+        <v>0.55975200000000003</v>
       </c>
       <c r="G6" s="4">
-        <f>F6-C6</f>
-        <v>-2.21705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G6:G26" si="4">F6-C6</f>
+        <v>-2.440248</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="R6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.35551430729985473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -4570,22 +4118,29 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>7.9520499999999994E-2</v>
+        <v>8.2330479999999998E-2</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>0.31442300000000001</v>
+        <v>0.22306592000000003</v>
       </c>
       <c r="F7" s="4">
-        <f>D7+E7*B7</f>
-        <v>1.9660584999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.4207260000000002</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.57927399999999984</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3941500000000069E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.40858268283448679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4597,26 +4152,29 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>7.985991499999999E-2</v>
+        <v>8.8123220000000002E-2</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>0.316120075</v>
+        <v>0.25782236000000003</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="3"/>
-        <v>1.6604602899999998</v>
+        <v>1.3772350200000001</v>
       </c>
       <c r="G8" s="4">
+        <f>F8-C8</f>
+        <v>-3.6227649799999999</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="13">
         <f t="shared" si="2"/>
-        <v>-3.3395397100000004</v>
-      </c>
-      <c r="H8">
-        <f>SQRT(SUMSQ(G3:G8)/6)</f>
-        <v>2.1877009699145029</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.46165105836911885</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -4628,22 +4186,29 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" si="0"/>
-        <v>0.11325531209999999</v>
+        <v>0.1243508698</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>0.3495154721</v>
+        <v>0.438960609</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="3"/>
-        <v>0.46277078420000001</v>
+        <v>0.56331147879999999</v>
       </c>
       <c r="G9" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.43668852120000001</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R9" s="13">
         <f t="shared" si="2"/>
-        <v>-0.53722921580000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.51471943390375097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -4655,22 +4220,29 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>0.11862760425799999</v>
-      </c>
-      <c r="E10" s="6">
+        <v>0.128717755012</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>0.36563234857400001</v>
+        <v>0.44332749421200002</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="3"/>
-        <v>1.2155246499799999</v>
+        <v>1.4587002376480001</v>
       </c>
       <c r="G10" s="6">
+        <f t="shared" si="4"/>
+        <v>-0.54129976235199995</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="R10" s="13">
         <f t="shared" si="2"/>
-        <v>-0.78447535002000013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.56778780943838303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -4682,22 +4254,29 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0.12647235775819998</v>
+        <v>0.13413075263551999</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>0.38132185557440001</v>
+        <v>0.45956648708256004</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>0.88911606890700001</v>
+        <v>1.05326372680064</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.94673627319936</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R11" s="13">
         <f t="shared" si="2"/>
-        <v>-2.1108839310929999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.62085618497301509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -4709,22 +4288,29 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0.14758119706912998</v>
+        <v>0.15359811536751358</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>0.46575721281811999</v>
+        <v>0.49850121254654722</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="3"/>
-        <v>2.0106100483416101</v>
+        <v>2.1476029655537023</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.85239703444629766</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="R12" s="13">
         <f t="shared" si="2"/>
-        <v>-0.98938995165838994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.67392456050764715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -4736,22 +4322,29 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>0.15747509658571388</v>
+        <v>0.16212208571197656</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="1"/>
-        <v>0.52512060991762344</v>
+        <v>0.53259709392439913</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="3"/>
-        <v>3.3081987560914548</v>
+        <v>3.3577046492583715</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3577046492583715</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="13">
         <f t="shared" si="2"/>
-        <v>1.3081987560914548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.72699293604227921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -4763,26 +4356,29 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>0.14439310902479932</v>
-      </c>
-      <c r="E14" s="4">
+        <v>0.14854503921939285</v>
+      </c>
+      <c r="E14" s="12">
         <f t="shared" si="1"/>
-        <v>0.45971067211305072</v>
+        <v>0.45113481496889685</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="3"/>
-        <v>2.4429464695900531</v>
+        <v>2.4042191140638773</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.5957808859361227</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R14" s="13">
         <f t="shared" si="2"/>
-        <v>-2.5570535304099469</v>
-      </c>
-      <c r="H14">
-        <f>SQRT(SUMSQ(G9:G14)/6)</f>
-        <v>1.5593079124464437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.78006131157691139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -4794,22 +4390,29 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" si="0"/>
-        <v>0.16996364432889879</v>
-      </c>
-      <c r="E15" s="5">
+        <v>0.17450284807875407</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>0.4852812074171502</v>
+        <v>0.580923859265703</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="3"/>
-        <v>0.65524485174604896</v>
+        <v>0.75542670734445705</v>
       </c>
       <c r="G15" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.24457329265554295</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="R15" s="13">
         <f t="shared" si="2"/>
-        <v>-0.34475514825395104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.83312968711154334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -4821,22 +4424,29 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0.1734111958114383</v>
+        <v>0.1769485810053095</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>0.4956238618647687</v>
+        <v>0.58336959219225848</v>
       </c>
       <c r="F16" s="4">
         <f>D16+E16*B16</f>
-        <v>1.6602827814057446</v>
+        <v>1.9270573575820849</v>
       </c>
       <c r="G16" s="4">
         <f>F16-C16</f>
-        <v>-0.33971721859425541</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-7.2942642417915149E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="R16" s="13">
+        <f t="shared" si="2"/>
+        <v>0.88619806264617551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -4848,22 +4458,29 @@
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>0.17680836799738084</v>
+        <v>0.17767800742948864</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
-        <v>0.50241820623665379</v>
+        <v>0.58555787146479599</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="3"/>
-        <v>1.1816447804706884</v>
+        <v>1.3487937503590806</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.6512062496409194</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="R17" s="13">
         <f t="shared" si="2"/>
-        <v>-1.8183552195293116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.93926643818080746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>16</v>
       </c>
@@ -4875,22 +4492,29 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>0.19499192019267395</v>
+        <v>0.19419006992589782</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="1"/>
-        <v>0.57515241501782621</v>
+        <v>0.61858199645761436</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="3"/>
-        <v>2.4956015802639788</v>
+        <v>2.6685180557563553</v>
       </c>
       <c r="G18" s="4">
         <f>F18-C18</f>
-        <v>-0.50439841973602118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>-0.33148194424364474</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="R18" s="13">
+        <f t="shared" si="2"/>
+        <v>0.99233481371543952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>17</v>
       </c>
@@ -4902,22 +4526,29 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>0.20003590439003416</v>
+        <v>0.19750488936833427</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
-        <v>0.60541632020198743</v>
+        <v>0.63184127422736014</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="3"/>
-        <v>3.8325338256019585</v>
+        <v>3.9885525347324955</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="4"/>
+        <v>1.9885525347324955</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="R19" s="13">
         <f t="shared" si="2"/>
-        <v>1.8325338256019585</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0454031892500717</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -4929,26 +4560,29 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>0.18171056613401457</v>
+        <v>0.17761936402100931</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="1"/>
-        <v>0.51378962892188951</v>
+        <v>0.51252812214341037</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="3"/>
-        <v>2.7506587107434624</v>
+        <v>2.7402599747380614</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.2597400252619386</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="R20" s="13">
         <f t="shared" si="2"/>
-        <v>-2.2493412892565376</v>
-      </c>
-      <c r="H20">
-        <f>SQRT(SUMSQ(G15:G20)/6)</f>
-        <v>1.4266986267024719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.0984715647847036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -4960,22 +4594,29 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" si="0"/>
-        <v>0.20420397902657994</v>
+        <v>0.20021676427362869</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>0.53628304181445485</v>
+        <v>0.62551512340650728</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" si="3"/>
-        <v>0.74048702084103479</v>
+        <v>0.82573188768013595</v>
       </c>
       <c r="G21" s="5">
+        <f t="shared" si="4"/>
+        <v>-0.17426811231986405</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="R21" s="13">
         <f t="shared" si="2"/>
-        <v>-0.25951297915896521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.1515399403193358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -4987,22 +4628,29 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0.2067991088181696</v>
+        <v>0.20195944539682734</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="1"/>
-        <v>0.54406843118922377</v>
+        <v>0.62725780452970592</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="3"/>
-        <v>1.839004402385841</v>
+        <v>2.083732858985945</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="4"/>
+        <v>8.3732858985944958E-2</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="R22" s="13">
         <f t="shared" si="2"/>
-        <v>-0.16099559761415905</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.2046083158539678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -5014,22 +4662,29 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>0.20840906479431118</v>
+        <v>0.2011221168069679</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="1"/>
-        <v>0.54728834314150698</v>
+        <v>0.62474581876012758</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="3"/>
-        <v>1.3029857510773251</v>
+        <v>1.4506137543272231</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.5493862456727769</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23" s="13">
         <f t="shared" si="2"/>
-        <v>-1.6970142489226749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.2576766913885999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -5041,22 +4696,29 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>0.22537920728353794</v>
+        <v>0.21661597926369566</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="1"/>
-        <v>0.61516891309841393</v>
+        <v>0.65573354367358316</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="3"/>
-        <v>2.6860548596771938</v>
+        <v>2.8395501539580281</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="4"/>
+        <v>-0.16044984604197188</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="R24" s="13">
         <f t="shared" si="2"/>
-        <v>-0.31394514032280618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.3107450669232321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>23</v>
       </c>
@@ -5068,22 +4730,29 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>0.22851865868676599</v>
+        <v>0.21822047772411537</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="1"/>
-        <v>0.63400562151778228</v>
+        <v>0.66215153751526201</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="3"/>
-        <v>4.0325523877934595</v>
+        <v>4.1911297028156875</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="4"/>
+        <v>2.1911297028156875</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R25" s="13">
         <f t="shared" si="2"/>
-        <v>2.0325523877934595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1.3638134424578643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>24</v>
       </c>
@@ -5095,841 +4764,596 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>0.20819313480883139</v>
+        <v>0.19630918069595849</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="1"/>
-        <v>0.53237800212810926</v>
+        <v>0.53068375534632073</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="3"/>
-        <v>2.8700831454493776</v>
+        <v>2.8497279574275622</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="4"/>
+        <v>-2.1502720425724378</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R26" s="13">
         <f t="shared" si="2"/>
-        <v>-2.1299168545506224</v>
-      </c>
-      <c r="H26">
-        <f>SQRT(SUMSQ(G21:G26)/6)</f>
-        <v>1.3987792592951489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="9" t="s">
+        <v>1.416881817992496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q27" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="R27" s="13">
+        <f t="shared" si="2"/>
+        <v>1.4699501935271282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="Q28" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="R28" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5230185690617604</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="14">
+        <f>SQRT(SUMSQ(G3:G26)/24)</f>
+        <v>1.7043249273036323</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="19"/>
+      <c r="Q29" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5760869445963925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="Q30" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="R30" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6291553201310245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="Q31" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="2"/>
+        <v>1.6822236956656564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="Q32" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="R32" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7352920712002886</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="Q33" s="3">
+        <v>3</v>
+      </c>
+      <c r="R33" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7883604467349206</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="R34" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8414288222695527</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="R35" s="13">
+        <f t="shared" si="2"/>
+        <v>1.8944971978041849</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q36" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="R36" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9475655733388169</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="R37" s="13">
+        <f t="shared" si="2"/>
+        <v>2.0006339488734488</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q38" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="R38" s="13">
+        <f t="shared" si="2"/>
+        <v>2.0537023244080812</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="R39" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1067706999427132</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="R40" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1598390754773451</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="R41" s="13">
+        <f>$D$26+Q41*$E$26</f>
+        <v>2.2129074510119771</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="R42" s="13">
+        <f>$D$26+Q42*$E$26</f>
+        <v>2.2659758265466095</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>4</v>
+      </c>
+      <c r="R43" s="13">
+        <f>$D$26+Q43*$E$26</f>
+        <v>2.3190442020812414</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q44" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R44" s="13">
+        <f>$D$26+Q44*$E$26</f>
+        <v>2.3721125776158734</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q45" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="R45" s="13">
+        <f>$D$26+Q45*$E$26</f>
+        <v>2.4251809531505057</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q46" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="R46" s="13">
+        <f>$D$26+Q46*$E$26</f>
+        <v>2.4782493286851377</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q47" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R47" s="13">
+        <f>$D$26+Q47*$E$26</f>
+        <v>2.5313177042197701</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="Q48" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="R48" s="13">
+        <f>$D$26+Q48*$E$26</f>
+        <v>2.5843860797544016</v>
+      </c>
+    </row>
+    <row r="49" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q49" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R49" s="13">
+        <f>$D$26+Q49*$E$26</f>
+        <v>2.6374544552890336</v>
+      </c>
+    </row>
+    <row r="50" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q50" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="R50" s="13">
+        <f>$D$26+Q50*$E$26</f>
+        <v>2.6905228308236659</v>
+      </c>
+    </row>
+    <row r="51" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q51" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="R51" s="13">
+        <f>$D$26+Q51*$E$26</f>
+        <v>2.7435912063582979</v>
+      </c>
+    </row>
+    <row r="52" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q52" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="R52" s="13">
+        <f>$D$26+Q52*$E$26</f>
+        <v>2.7966595818929303</v>
+      </c>
+    </row>
+    <row r="53" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q53" s="3">
+        <v>5</v>
+      </c>
+      <c r="R53" s="13">
+        <f>$D$26+Q53*$E$26</f>
+        <v>2.8497279574275622</v>
+      </c>
+    </row>
+    <row r="54" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q54" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="R54" s="13">
+        <f>$D$26+Q54*$E$26</f>
+        <v>2.9027963329621942</v>
+      </c>
+    </row>
+    <row r="55" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q55" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="R55" s="13">
+        <f>$D$26+Q55*$E$26</f>
+        <v>2.9558647084968266</v>
+      </c>
+    </row>
+    <row r="56" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q56" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="R56" s="13">
+        <f>$D$26+Q56*$E$26</f>
+        <v>3.0089330840314581</v>
+      </c>
+    </row>
+    <row r="57" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q57" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="R57" s="13">
+        <f>$D$26+Q57*$E$26</f>
+        <v>3.0620014595660905</v>
+      </c>
+    </row>
+    <row r="58" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q58" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="R58" s="13">
+        <f>$D$26+Q58*$E$26</f>
+        <v>3.1150698351007224</v>
+      </c>
+    </row>
+    <row r="59" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q59" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="R59" s="13">
+        <f>$D$26+Q59*$E$26</f>
+        <v>3.1681382106353544</v>
+      </c>
+    </row>
+    <row r="60" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q60" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="R60" s="13">
+        <f>$D$26+Q60*$E$26</f>
+        <v>3.2212065861699868</v>
+      </c>
+    </row>
+    <row r="61" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q61" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="R61" s="13">
+        <f>$D$26+Q61*$E$26</f>
+        <v>3.2742749617046187</v>
+      </c>
+    </row>
+    <row r="62" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q62" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="R62" s="13">
+        <f>$D$26+Q62*$E$26</f>
+        <v>3.3273433372392511</v>
+      </c>
+    </row>
+    <row r="63" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q63" s="3">
+        <v>6</v>
+      </c>
+      <c r="R63" s="13">
+        <f>$D$26+Q63*$E$26</f>
+        <v>3.3804117127738826</v>
+      </c>
+    </row>
+    <row r="64" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q64" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="R64" s="13">
+        <f>$D$26+Q64*$E$26</f>
+        <v>3.4334800883085146</v>
+      </c>
+    </row>
+    <row r="65" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q65" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="R65" s="13">
+        <f>$D$26+Q65*$E$26</f>
+        <v>3.486548463843147</v>
+      </c>
+    </row>
+    <row r="66" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q66" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="R66" s="13">
+        <f>$D$26+Q66*$E$26</f>
+        <v>3.5396168393777789</v>
+      </c>
+    </row>
+    <row r="67" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q67" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="R67" s="13">
+        <f>$D$26+Q67*$E$26</f>
+        <v>3.5926852149124113</v>
+      </c>
+    </row>
+    <row r="68" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q68" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="R68" s="13">
+        <f t="shared" ref="R68:R83" si="5">$D$26+Q68*$E$26</f>
+        <v>3.6457535904470433</v>
+      </c>
+    </row>
+    <row r="69" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q69" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="R69" s="13">
+        <f t="shared" si="5"/>
+        <v>3.6988219659816752</v>
+      </c>
+    </row>
+    <row r="70" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q70" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="R70" s="13">
+        <f t="shared" si="5"/>
+        <v>3.7518903415163076</v>
+      </c>
+    </row>
+    <row r="71" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q71" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="R71" s="13">
+        <f t="shared" si="5"/>
+        <v>3.8049587170509391</v>
+      </c>
+    </row>
+    <row r="72" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q72" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="R72" s="13">
+        <f t="shared" si="5"/>
+        <v>3.8580270925855715</v>
+      </c>
+    </row>
+    <row r="73" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q73" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="R73" s="13">
+        <f t="shared" si="5"/>
+        <v>3.9110954681202035</v>
+      </c>
+    </row>
+    <row r="74" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q74" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="R74" s="13">
+        <f t="shared" si="5"/>
+        <v>3.9641638436548354</v>
+      </c>
+    </row>
+    <row r="75" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q75" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="R75" s="13">
+        <f t="shared" si="5"/>
+        <v>4.0172322191894683</v>
+      </c>
+    </row>
+    <row r="76" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q76" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="R76" s="13">
+        <f t="shared" si="5"/>
+        <v>4.0703005947240998</v>
+      </c>
+    </row>
+    <row r="77" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q77" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="R77" s="13">
+        <f t="shared" si="5"/>
+        <v>4.1233689702587322</v>
+      </c>
+    </row>
+    <row r="78" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q78" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="R78" s="13">
+        <f t="shared" si="5"/>
+        <v>4.1764373457933637</v>
+      </c>
+    </row>
+    <row r="79" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q79" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="R79" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2295057213279961</v>
+      </c>
+    </row>
+    <row r="80" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q80" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="R80" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2825740968626285</v>
+      </c>
+    </row>
+    <row r="81" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q81" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="R81" s="13">
+        <f t="shared" si="5"/>
+        <v>4.3356424723972609</v>
+      </c>
+    </row>
+    <row r="82" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q82" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="R82" s="13">
+        <f t="shared" si="5"/>
+        <v>4.3887108479318933</v>
+      </c>
+    </row>
+    <row r="83" spans="17:18" x14ac:dyDescent="0.3">
+      <c r="Q83" s="3">
         <v>8</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="7">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.1877009699144998</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="7">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1.5593079124464437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="7">
-        <v>18</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1.4266986267024719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D32" s="7">
-        <v>24</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.3987792592951489</v>
+      <c r="R83" s="13">
+        <f t="shared" si="5"/>
+        <v>4.4417792234665239</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G29:H29"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE04A5B-63C3-496F-9644-93C0B29F70FB}">
-  <dimension ref="A2:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <f>D3+E3*B3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f>F3-C3</f>
-        <v>-5</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D26" si="0">D3-$K$3*G3</f>
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E26" si="1">E3-$K$3*G3*B4</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="F4" s="4">
-        <f>D4+E4*B4</f>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="G4" s="4">
-        <f>F4-C4</f>
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5:F26" si="2">D5+E5*B5</f>
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G26" si="3">F5-C5</f>
-        <v>-1.7549999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10255</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.39530000000000004</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="2"/>
-        <v>2.4743500000000003</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" si="3"/>
-        <v>0.47435000000000027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>9.7806500000000005E-2</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="1"/>
-        <v>0.357352</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="2"/>
-        <v>2.9566224999999999</v>
-      </c>
-      <c r="G7" s="4">
-        <f t="shared" si="3"/>
-        <v>-1.0433775000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.10824027500000001</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.43038842500000002</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="2"/>
-        <v>3.1209592500000003</v>
-      </c>
-      <c r="G8" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.8790407499999997</v>
-      </c>
-      <c r="H8">
-        <f>SQRT(SUMSQ(G3:G8)/6)</f>
-        <v>2.884803435538454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.1370306825</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.45917883250000002</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>0.59620951499999997</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="3"/>
-        <v>-4.403790485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>0.18106858735</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="1"/>
-        <v>0.59129254705000001</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="2"/>
-        <v>1.9549462284999999</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="3"/>
-        <v>-2.0450537715000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.201519125065</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>0.67309469790999998</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="2"/>
-        <v>2.8938979167049999</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.10610208329500015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.20258014589795001</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.67946082290770005</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
-        <v>4.2793450833441504</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="3"/>
-        <v>2.2793450833441504</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17978669506450851</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.49711321624016802</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>4.1566924249858523</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="3"/>
-        <v>0.15669242498585234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.17821977081464999</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.48614474649115835</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="2"/>
-        <v>3.5812329962527585</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.4187670037472415</v>
-      </c>
-      <c r="H14">
-        <f>SQRT(SUMSQ(G9:G14)/6)</f>
-        <v>2.4033751808519881</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20240744085212239</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.51033241652863082</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>0.71273985738075318</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="3"/>
-        <v>-4.2872601426192469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>0.24528004227831487</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.6389502208072082</v>
-      </c>
-      <c r="F16" s="4">
-        <f>D16+E16*B16</f>
-        <v>2.1621307046999396</v>
-      </c>
-      <c r="G16" s="4">
-        <f>F16-C16</f>
-        <v>-1.8378692953000604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2636587352313155</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>0.71246499261921059</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="2"/>
-        <v>3.1135187057081577</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="3"/>
-        <v>0.1135187057081577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2625235481742339</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="1"/>
-        <v>0.70565387027672111</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="2"/>
-        <v>4.4964467698345603</v>
-      </c>
-      <c r="G18" s="4">
-        <f>F18-C18</f>
-        <v>2.4964467698345603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23755908047588831</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.50593812868995625</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="2"/>
-        <v>4.2850641099955382</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="3"/>
-        <v>0.28506410999553822</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>6</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>0.23470843937593291</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.48598364099026858</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="2"/>
-        <v>3.6365939263078131</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.3634060736921869</v>
-      </c>
-      <c r="H20">
-        <f>SQRT(SUMSQ(G15:G20)/6)</f>
-        <v>2.3689113485675959</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>0.25834250011285476</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="1"/>
-        <v>0.50961770172719045</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>0.76796020184004521</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="3"/>
-        <v>-4.2320397981599545</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>0.30066289809445429</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63657889567198911</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="2"/>
-        <v>2.2103995851104217</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="3"/>
-        <v>-1.7896004148895783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.31855890224335009</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="1"/>
-        <v>0.70816291226757222</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="2"/>
-        <v>3.151210551313639</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.15121055131363903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.31704679673021369</v>
-      </c>
-      <c r="E24" s="4">
-        <f t="shared" si="1"/>
-        <v>0.69909027918875388</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="2"/>
-        <v>4.511588471862737</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="3"/>
-        <v>2.511588471862737</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>0.29193091201158633</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" si="1"/>
-        <v>0.49816320143973492</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="2"/>
-        <v>4.2772365235294654</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="3"/>
-        <v>0.27723652352946537</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.28915854677629166</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="1"/>
-        <v>0.47875664479267233</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="2"/>
-        <v>3.6404550603249981</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="3"/>
-        <v>-2.3595449396750019</v>
-      </c>
-      <c r="H26">
-        <f>SQRT(SUMSQ(G21:G26)/6)</f>
-        <v>2.3483357295941056</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="7">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.884803435538454</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="7">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2.4033751808519881</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="7">
-        <v>18</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2.3689113485675959</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D32" s="7">
-        <v>24</v>
-      </c>
-      <c r="E32" s="1">
-        <v>2.3483357295941056</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G29:H29"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
